--- a/workshops/2024_09_reunion_inicial_redec/horario.xlsx
+++ b/workshops/2024_09_reunion_inicial_redec/horario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/Dropbox-Personal/redec/web/workshops/2024_09_reunion_inicial_redec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDD854-82B6-004B-841F-90C0E441A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC10CC0-3925-DF41-BA47-3E5145EB6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="500" windowWidth="30240" windowHeight="16440" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>08:45 - 09:00</t>
   </si>
@@ -97,9 +97,6 @@
     <t>El papel del suelo en el decaimiento forestal</t>
   </si>
   <si>
-    <t>Alerta temprana y sensores remotos en decaimiento forestal</t>
-  </si>
-  <si>
     <t>Comida</t>
   </si>
   <si>
@@ -133,18 +130,9 @@
     <t>José A. Carreira, Lorena Gómez-Aparicio y Jorge Curiel</t>
   </si>
   <si>
-    <t>Rocío Hernández-Clemente y Mariano García Alonso</t>
-  </si>
-  <si>
     <t>Francisco Lloret</t>
   </si>
   <si>
-    <t>Rafael M. Navarro Cerrillo y Curro Bonet</t>
-  </si>
-  <si>
-    <t>Paloma Ruiz-Benito, Antonio J. Pérez-Luque</t>
-  </si>
-  <si>
     <t>Antonio J. Pérez-Luque, Paloma Ruiz-Benito y Jordi Martínez-Vilalta</t>
   </si>
   <si>
@@ -172,45 +160,18 @@
     <t>La red nacional de daños y el decaimiento forestal</t>
   </si>
   <si>
-    <t>Personal MITECO</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Aragón</t>
   </si>
   <si>
-    <t>Enrique Arrechea o Álvaro Hernández</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Castilla y León</t>
   </si>
   <si>
-    <t>Contactados UPO</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Castilla-La Mancha</t>
   </si>
   <si>
-    <t>Contactados Junta</t>
-  </si>
-  <si>
-    <t>El decaimiento en Cataluña o Comunidad Valenciana?</t>
-  </si>
-  <si>
-    <t>Paco?</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Extremadura</t>
   </si>
   <si>
-    <t>El decaimiento forestal en Madrid?</t>
-  </si>
-  <si>
-    <t>Paloma?</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Murcia?</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Navarra</t>
   </si>
   <si>
@@ -220,9 +181,6 @@
     <t>El decaimiento a escala nacional, retos y oportunidades de la investigación</t>
   </si>
   <si>
-    <t>Mariana Directora-Conservadora</t>
-  </si>
-  <si>
     <t>Debate y establecimiento de hoja de ruta nacional  </t>
   </si>
   <si>
@@ -235,12 +193,6 @@
     <t>09:00 - 09:20</t>
   </si>
   <si>
-    <t>09:20 - 10:00</t>
-  </si>
-  <si>
-    <t>10:00 - 10:30</t>
-  </si>
-  <si>
     <t>10:30 - 10:45</t>
   </si>
   <si>
@@ -277,9 +229,6 @@
     <t>13:15 - 13:30</t>
   </si>
   <si>
-    <t>15:00 - 18:30</t>
-  </si>
-  <si>
     <t>Paloma Ruiz-Benito y Francisco Lloret. Coordinadores ReDec.</t>
   </si>
   <si>
@@ -295,21 +244,12 @@
     <t>campo</t>
   </si>
   <si>
-    <t>Salida desde XXXXXXXXXXXXX en autobús</t>
-  </si>
-  <si>
     <t>Visita a pinares de repoblación con decaimiento</t>
   </si>
   <si>
-    <t>Visita a Alcornocales con decaimiento</t>
-  </si>
-  <si>
     <t>Visita a bosques puros y mixtos de pinsapo con decaimiento</t>
   </si>
   <si>
-    <t>Vuelta a Nerja XXXXXXX</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -328,7 +268,64 @@
     <t>08:00 - 08:15</t>
   </si>
   <si>
-    <t>20:00 - 20::15</t>
+    <t>Rocío Hernández-Clemente, Mariano García Alonso y José Luis Quero</t>
+  </si>
+  <si>
+    <t>Rafael M. Navarro Cerrillo, Regino Zamora y Miguel A. de Zavala</t>
+  </si>
+  <si>
+    <t>Paloma Ruiz-Benito, Antonio J. Pérez-Luque y Raúl Sánchez-Salguero</t>
+  </si>
+  <si>
+    <t>Representante de MITECO</t>
+  </si>
+  <si>
+    <t>Representante de la administración</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Cataluña</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en la Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Madrid</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Murcia</t>
+  </si>
+  <si>
+    <t>13:30 - 13:45</t>
+  </si>
+  <si>
+    <t>13:45 - 14:45</t>
+  </si>
+  <si>
+    <t>09:20 - 09:50</t>
+  </si>
+  <si>
+    <t>09:50 - 10:30</t>
+  </si>
+  <si>
+    <t>15:00 - 18:30</t>
+  </si>
+  <si>
+    <t>Directora-Conservadora y gestores locales</t>
+  </si>
+  <si>
+    <t>Salida desde Nerja en autobús gratuito</t>
+  </si>
+  <si>
+    <t>Visita a alcornocales con decaimiento</t>
+  </si>
+  <si>
+    <t>20:00 - 20:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelta a Nerja </t>
+  </si>
+  <si>
+    <t>Alerta temprana y teledetección del decaimiento forestal</t>
   </si>
 </sst>
 </file>
@@ -681,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,27 +693,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -728,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -736,7 +733,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -748,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -756,7 +753,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -768,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -776,7 +773,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -788,12 +785,12 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -805,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -813,7 +810,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -822,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -833,7 +830,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -842,15 +839,15 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -859,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -879,10 +876,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -890,7 +887,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -902,12 +899,12 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -916,10 +913,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -927,7 +924,7 @@
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -936,10 +933,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -947,7 +944,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -956,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -976,10 +973,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -987,19 +984,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1007,19 +1004,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1027,19 +1024,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1047,19 +1044,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1067,19 +1064,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1087,36 +1084,36 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1124,19 +1121,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1144,19 +1141,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1164,19 +1161,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1184,19 +1181,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1204,19 +1201,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1224,19 +1221,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1244,19 +1241,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1264,19 +1261,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -1284,16 +1281,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>81</v>
@@ -1304,19 +1301,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1324,98 +1321,118 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>19</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>19</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/workshops/2024_09_reunion_inicial_redec/horario.xlsx
+++ b/workshops/2024_09_reunion_inicial_redec/horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/Dropbox-Personal/redec/web/workshops/2024_09_reunion_inicial_redec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC10CC0-3925-DF41-BA47-3E5145EB6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C466A-DD2C-5044-BFED-5B661B55B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>08:45 - 09:00</t>
   </si>
@@ -64,12 +64,6 @@
     <t>15:30 - 17:00</t>
   </si>
   <si>
-    <t>17:00 - 17:30</t>
-  </si>
-  <si>
-    <t>17:30 - 18:15</t>
-  </si>
-  <si>
     <t>18:15 - 19:00</t>
   </si>
   <si>
@@ -139,39 +133,18 @@
     <t>Autoridades</t>
   </si>
   <si>
-    <t>Introducción a la iniciativa ReDec y su importancia para la gestión forestal</t>
-  </si>
-  <si>
-    <t>Francisco Lloret. Catedrático de Ecología de la Univ. Autónoma de Barcelona (UAB) e investigador del CREAF.</t>
-  </si>
-  <si>
     <t>La investigación en la ordenación y gestión forestal como herramientas para mitigar el decaimiento forestal</t>
   </si>
   <si>
     <t>Miguel A. de Zavala. Catedrático de Ecología de la Univ. Alcalá de Henares (UAH)</t>
   </si>
   <si>
-    <t>Decaimiento forestal en Andalucía: experiencias y retos</t>
-  </si>
-  <si>
-    <t>Grupo de trabajo sobre Decaimiento (Consejería de Sostenibilidad, Medio Ambiente y Economía Azul – Delegaciones Territoriales).</t>
-  </si>
-  <si>
-    <t>La red nacional de daños y el decaimiento forestal</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Aragón</t>
   </si>
   <si>
     <t>El decaimiento forestal en Castilla y León</t>
   </si>
   <si>
-    <t>El decaimiento forestal en Castilla-La Mancha</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Extremadura</t>
-  </si>
-  <si>
     <t>El decaimiento forestal en Navarra</t>
   </si>
   <si>
@@ -181,39 +154,15 @@
     <t>El decaimiento a escala nacional, retos y oportunidades de la investigación</t>
   </si>
   <si>
-    <t>Debate y establecimiento de hoja de ruta nacional  </t>
-  </si>
-  <si>
-    <t>Salida de campo en el PN Sierra Tejeda, Almijara y Alhama en furgonetas (Almuerzo tipo Picnic en campo)</t>
-  </si>
-  <si>
     <t>08:30 - 09:00</t>
   </si>
   <si>
-    <t>09:00 - 09:20</t>
-  </si>
-  <si>
-    <t>10:30 - 10:45</t>
-  </si>
-  <si>
-    <t>10:45 - 11:00</t>
-  </si>
-  <si>
     <t>11:00 - 11:15</t>
   </si>
   <si>
     <t>11:15 - 11:30</t>
   </si>
   <si>
-    <t>11:30 - 11:45</t>
-  </si>
-  <si>
-    <t>11:45 - 12:00</t>
-  </si>
-  <si>
-    <t>12:00 - 12:15</t>
-  </si>
-  <si>
     <t>12:15 - 12:30</t>
   </si>
   <si>
@@ -223,109 +172,241 @@
     <t>12:45 - 13:00</t>
   </si>
   <si>
-    <t>13:00 - 13:15</t>
-  </si>
-  <si>
-    <t>13:15 - 13:30</t>
+    <t>jornada</t>
+  </si>
+  <si>
+    <t>redec</t>
+  </si>
+  <si>
+    <t>publica</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>Visita a bosques puros y mixtos de pinsapo con decaimiento</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>coordinacion</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>08:00 - 08:15</t>
+  </si>
+  <si>
+    <t>Rocío Hernández-Clemente, Mariano García Alonso y José Luis Quero</t>
+  </si>
+  <si>
+    <t>Rafael M. Navarro Cerrillo, Regino Zamora y Miguel A. de Zavala</t>
+  </si>
+  <si>
+    <t>Paloma Ruiz-Benito, Antonio J. Pérez-Luque y Raúl Sánchez-Salguero</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Cataluña</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en la Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Madrid</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Murcia</t>
+  </si>
+  <si>
+    <t>Directora-Conservadora y gestores locales</t>
+  </si>
+  <si>
+    <t>20:00 - 20:15</t>
+  </si>
+  <si>
+    <t>Alerta temprana y teledetección del decaimiento forestal</t>
+  </si>
+  <si>
+    <t>17:00 - 17:20</t>
+  </si>
+  <si>
+    <t>17:20 - 18:15</t>
+  </si>
+  <si>
+    <t>09:00 - 09:15</t>
+  </si>
+  <si>
+    <t>El decaimiento en el Parque Natural Sierras de Tejeda, Almijara y Alhama</t>
+  </si>
+  <si>
+    <t>Mariana Orti Morís. Directora-Conservadora PN Sierras Tejeda, Almijara y Alhama</t>
+  </si>
+  <si>
+    <t>09:15 - 09:30</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal. Mas allá de disciplinas y órganos administrativos</t>
+  </si>
+  <si>
+    <t>J. Ramón Guzmán Álvarez. DG Política Forestal y Biodiversidad. Consejería Medio Ambiente y Sostenibilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducción a la iniciativa ReDec, conclusiones de la jornada previa y su importancia para la gestión forestal </t>
+  </si>
+  <si>
+    <t>09:30 - 09:45</t>
+  </si>
+  <si>
+    <t>Francisco Lloret. Catedrático de Ecología de la Univ. Autónoma de Barcelona (UAB) e investigador del CREAF. Co-coordinador ReDec</t>
+  </si>
+  <si>
+    <t>09:45 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 10:15</t>
+  </si>
+  <si>
+    <t>Panorámica del decaimiento forestal en España, claves sobre su conocimiento y gestión</t>
+  </si>
+  <si>
+    <t>Gerardo Sánchez Peña. Ministerio de Agricultura, Pesca y Alimentación.</t>
+  </si>
+  <si>
+    <t>La Red Nacional de Seguimiento de los Bosques: Redes de Nivel I y II</t>
+  </si>
+  <si>
+    <t>10:15 - 10:30</t>
+  </si>
+  <si>
+    <t>Asunción Roldán Zamarrón. Ministerio para la Transición Ecológica y el Reto Demográfico</t>
+  </si>
+  <si>
+    <t>10:30 - 11:00</t>
+  </si>
+  <si>
+    <t>Programa de mejora y conservación de los recursos genéticos de la encina y el alcornoque frente al síndrome de la seca</t>
+  </si>
+  <si>
+    <t>Felipe Pérez Martín. Ministerio para la Transición Ecológica y el Reto Demográfico</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Andalucía</t>
+  </si>
+  <si>
+    <t>Grupo de trabajo sobre Decaimiento (Consejería de Sostenibilidad y Medio Ambiente–Delegaciones Territoriales).</t>
+  </si>
+  <si>
+    <t>11:30 - 11:55</t>
+  </si>
+  <si>
+    <t>Francisco J. Blasco Fernández, Comunidad de Madrid</t>
+  </si>
+  <si>
+    <t>Álvaro Hernández, Gobierno de Aragón</t>
+  </si>
+  <si>
+    <t>Jorge de las Heras, Generalitat de Cataluña</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Galicia</t>
+  </si>
+  <si>
+    <t>José Matel, Xunta de Galicia</t>
+  </si>
+  <si>
+    <t>13:00 - 13:05</t>
+  </si>
+  <si>
+    <t>Alejandro Cantero, HAZI, País Vasco</t>
+  </si>
+  <si>
+    <t>13:05 - 14:30</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>14:30 - 14:45</t>
+  </si>
+  <si>
+    <t>María Gómez Fernández, Junta de Castilla y León</t>
+  </si>
+  <si>
+    <t>Raúl Arias Puertas, Región de Murcia</t>
+  </si>
+  <si>
+    <t>Cristóbal Molina Terrén, Comunidad Foral de Navarra</t>
+  </si>
+  <si>
+    <t>14:45 - 15:00</t>
+  </si>
+  <si>
+    <t>15:00 - 15:05</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Islas Baleares</t>
+  </si>
+  <si>
+    <t>15:05 - 15:10</t>
+  </si>
+  <si>
+    <t>15:10 - 15:15</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal en Canarias</t>
+  </si>
+  <si>
+    <t>Luís Núñez Vázquez, Islas Baleares</t>
+  </si>
+  <si>
+    <t>Benjamín Artiles Estupiñán, Gobierno de Canarias</t>
+  </si>
+  <si>
+    <t>15:15 - 15:30</t>
+  </si>
+  <si>
+    <t>Eduardo Pérez, Generalitat Valenciana</t>
+  </si>
+  <si>
+    <t>15:30 - 16:30</t>
+  </si>
+  <si>
+    <t>Debate y conclusiones. ¿Por qué sería deseable seguir compartiendo conocimiento sobre el decaimiento forestal?</t>
+  </si>
+  <si>
+    <t>J. Ramón Guzmán, Francisco Lloret y Raúl Sánchez-Salguero</t>
+  </si>
+  <si>
+    <t>16:30 - 20:30</t>
+  </si>
+  <si>
+    <t>Salida de campo en el PN Sierra Tejeda, Almijara y Alhama (pendiente confirmación)</t>
+  </si>
+  <si>
+    <t>11:55 - 12:00</t>
+  </si>
+  <si>
+    <t>Salida desde Nerja en autobús</t>
+  </si>
+  <si>
+    <t>Visita a pinares de repoblación y naturales con decaimiento</t>
+  </si>
+  <si>
+    <t>Visita a formaciones de Quercus con decaimiento</t>
+  </si>
+  <si>
+    <t>Vuelta a Nerja</t>
   </si>
   <si>
     <t>Paloma Ruiz-Benito y Francisco Lloret. Coordinadores ReDec.</t>
-  </si>
-  <si>
-    <t>jornada</t>
-  </si>
-  <si>
-    <t>redec</t>
-  </si>
-  <si>
-    <t>publica</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>Visita a pinares de repoblación con decaimiento</t>
-  </si>
-  <si>
-    <t>Visita a bosques puros y mixtos de pinsapo con decaimiento</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>coordinacion</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>08:00 - 08:15</t>
-  </si>
-  <si>
-    <t>Rocío Hernández-Clemente, Mariano García Alonso y José Luis Quero</t>
-  </si>
-  <si>
-    <t>Rafael M. Navarro Cerrillo, Regino Zamora y Miguel A. de Zavala</t>
-  </si>
-  <si>
-    <t>Paloma Ruiz-Benito, Antonio J. Pérez-Luque y Raúl Sánchez-Salguero</t>
-  </si>
-  <si>
-    <t>Representante de MITECO</t>
-  </si>
-  <si>
-    <t>Representante de la administración</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Cataluña</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en la Comunidad Valenciana</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Madrid</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Murcia</t>
-  </si>
-  <si>
-    <t>13:30 - 13:45</t>
-  </si>
-  <si>
-    <t>13:45 - 14:45</t>
-  </si>
-  <si>
-    <t>09:20 - 09:50</t>
-  </si>
-  <si>
-    <t>09:50 - 10:30</t>
-  </si>
-  <si>
-    <t>15:00 - 18:30</t>
-  </si>
-  <si>
-    <t>Directora-Conservadora y gestores locales</t>
-  </si>
-  <si>
-    <t>Salida desde Nerja en autobús gratuito</t>
-  </si>
-  <si>
-    <t>Visita a alcornocales con decaimiento</t>
-  </si>
-  <si>
-    <t>20:00 - 20:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vuelta a Nerja </t>
-  </si>
-  <si>
-    <t>Alerta temprana y teledetección del decaimiento forestal</t>
   </si>
 </sst>
 </file>
@@ -341,12 +422,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,8 +448,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -678,14 +766,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="93.1640625" customWidth="1"/>
     <col min="5" max="5" width="74.83203125" customWidth="1"/>
@@ -693,746 +782,863 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
         <v>19</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
+      <c r="C41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/workshops/2024_09_reunion_inicial_redec/horario.xlsx
+++ b/workshops/2024_09_reunion_inicial_redec/horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/Dropbox-Personal/redec/web/workshops/2024_09_reunion_inicial_redec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C466A-DD2C-5044-BFED-5B661B55B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A85468-5489-8B40-881C-11ADFC856A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="122">
   <si>
     <t>08:45 - 09:00</t>
   </si>
@@ -226,9 +226,6 @@
     <t>El decaimiento forestal en Murcia</t>
   </si>
   <si>
-    <t>Directora-Conservadora y gestores locales</t>
-  </si>
-  <si>
     <t>20:00 - 20:15</t>
   </si>
   <si>
@@ -244,24 +241,15 @@
     <t>09:00 - 09:15</t>
   </si>
   <si>
-    <t>El decaimiento en el Parque Natural Sierras de Tejeda, Almijara y Alhama</t>
-  </si>
-  <si>
     <t>Mariana Orti Morís. Directora-Conservadora PN Sierras Tejeda, Almijara y Alhama</t>
   </si>
   <si>
     <t>09:15 - 09:30</t>
   </si>
   <si>
-    <t>El decaimiento forestal. Mas allá de disciplinas y órganos administrativos</t>
-  </si>
-  <si>
     <t>J. Ramón Guzmán Álvarez. DG Política Forestal y Biodiversidad. Consejería Medio Ambiente y Sostenibilidad.</t>
   </si>
   <si>
-    <t xml:space="preserve">Introducción a la iniciativa ReDec, conclusiones de la jornada previa y su importancia para la gestión forestal </t>
-  </si>
-  <si>
     <t>09:30 - 09:45</t>
   </si>
   <si>
@@ -322,24 +310,12 @@
     <t>José Matel, Xunta de Galicia</t>
   </si>
   <si>
-    <t>13:00 - 13:05</t>
-  </si>
-  <si>
-    <t>Alejandro Cantero, HAZI, País Vasco</t>
-  </si>
-  <si>
-    <t>13:05 - 14:30</t>
-  </si>
-  <si>
     <t>Almuerzo</t>
   </si>
   <si>
     <t>14:30 - 14:45</t>
   </si>
   <si>
-    <t>María Gómez Fernández, Junta de Castilla y León</t>
-  </si>
-  <si>
     <t>Raúl Arias Puertas, Región de Murcia</t>
   </si>
   <si>
@@ -358,39 +334,15 @@
     <t>15:05 - 15:10</t>
   </si>
   <si>
-    <t>15:10 - 15:15</t>
-  </si>
-  <si>
-    <t>El decaimiento forestal en Canarias</t>
-  </si>
-  <si>
     <t>Luís Núñez Vázquez, Islas Baleares</t>
   </si>
   <si>
-    <t>Benjamín Artiles Estupiñán, Gobierno de Canarias</t>
-  </si>
-  <si>
-    <t>15:15 - 15:30</t>
-  </si>
-  <si>
     <t>Eduardo Pérez, Generalitat Valenciana</t>
   </si>
   <si>
-    <t>15:30 - 16:30</t>
-  </si>
-  <si>
     <t>Debate y conclusiones. ¿Por qué sería deseable seguir compartiendo conocimiento sobre el decaimiento forestal?</t>
   </si>
   <si>
-    <t>J. Ramón Guzmán, Francisco Lloret y Raúl Sánchez-Salguero</t>
-  </si>
-  <si>
-    <t>16:30 - 20:30</t>
-  </si>
-  <si>
-    <t>Salida de campo en el PN Sierra Tejeda, Almijara y Alhama (pendiente confirmación)</t>
-  </si>
-  <si>
     <t>11:55 - 12:00</t>
   </si>
   <si>
@@ -400,22 +352,78 @@
     <t>Visita a pinares de repoblación y naturales con decaimiento</t>
   </si>
   <si>
-    <t>Visita a formaciones de Quercus con decaimiento</t>
-  </si>
-  <si>
-    <t>Vuelta a Nerja</t>
-  </si>
-  <si>
     <t>Paloma Ruiz-Benito y Francisco Lloret. Coordinadores ReDec.</t>
+  </si>
+  <si>
+    <t>El decaimiento forestal: Un estado de crisis en el que coindicen disciplinas y órganos administrativos </t>
+  </si>
+  <si>
+    <t>Bienvenida al PN Sierras de Tejeda, Almijara y Alhama </t>
+  </si>
+  <si>
+    <t>Presentación de la iniciativa ReDec: Conclusiones de la jornada previa de investigación y su aplicación en la gestión forestal </t>
+  </si>
+  <si>
+    <t>13:00 - 14:25</t>
+  </si>
+  <si>
+    <t>14:25 - 14:30</t>
+  </si>
+  <si>
+    <t>Alejandro Cantero, HAZI Fundazioa, País Vasco</t>
+  </si>
+  <si>
+    <t>Gema M. Pérez Escolar, Junta de Castilla y León</t>
+  </si>
+  <si>
+    <t>15:10 - 15:25</t>
+  </si>
+  <si>
+    <t>Francisco Lloret, Raúl Sánchez-Salguero y José Ramón Guzmán Álvarez</t>
+  </si>
+  <si>
+    <t>Visita guiada por grupos a la Cueva de Nerja y Jardín Botánico de la Cueva de Nerja* </t>
+  </si>
+  <si>
+    <t>Es necesario rellenar el [formulario](https://forms.gle/LXped8EVrQpmTeqi6) *voluntario y no cubierto por la organización </t>
+  </si>
+  <si>
+    <t>Cena social en el Restaurante Hotel Al-Andalus (a 2 min de la Cueva de Nerja)* </t>
+  </si>
+  <si>
+    <t>18:30 - 20:30</t>
+  </si>
+  <si>
+    <t>20:30 - 23:00</t>
+  </si>
+  <si>
+    <t>Vuelta a la Cueva de Nerja</t>
+  </si>
+  <si>
+    <t>Visita a formaciones de *Quercus* con decaimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -448,10 +456,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,15 +781,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="93.1640625" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" customWidth="1"/>
     <col min="5" max="5" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
@@ -982,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -999,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1071,573 +1084,573 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="5">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="5">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="5">
+        <v>19</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="5">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>19</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>48</v>
       </c>
     </row>
